--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77181.63001759764</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77181.63001759764</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034338959.161957</v>
+        <v>37321189.02226967</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10349.40757403555</v>
+        <v>791943.5438182252</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20503.63253893477</v>
+        <v>1549911.573947845</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30650.49722594937</v>
+        <v>2307879.604077465</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41011.31935933098</v>
+        <v>3065087.936664233</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51372.14149271257</v>
+        <v>3822296.269251</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61732.96043975101</v>
+        <v>4579504.601837766</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72093.72528138138</v>
+        <v>5336712.934424531</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82454.54422841985</v>
+        <v>6093921.267011294</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>92815.36636180145</v>
+        <v>6851129.599598057</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103176.1853088399</v>
+        <v>7608337.932184821</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113537.0074422215</v>
+        <v>8365546.264771583</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123897.82638926</v>
+        <v>9122754.59735835</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134258.6485226416</v>
+        <v>9879962.929945122</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144619.4706560232</v>
+        <v>10637171.26253189</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154980.2927894049</v>
+        <v>11394379.59511867</v>
       </c>
     </row>
   </sheetData>
